--- a/MasterRecord.xlsx
+++ b/MasterRecord.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertst-johnsmith/Documents/RA/WW1EphemeraWebLive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertst-johnsmith/Documents/Ephemera/ww1EphemeraOffLine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E023814-CAE1-0040-8008-07B720FFAD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5800FFA-D43A-9A45-8152-6044431039E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="37040" windowHeight="20600" xr2:uid="{E4E3F577-C457-8347-85A2-907EB0A8182A}"/>
+    <workbookView xWindow="4880" yWindow="940" windowWidth="37040" windowHeight="20600" xr2:uid="{E4E3F577-C457-8347-85A2-907EB0A8182A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BN$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BQ$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1049">
   <si>
     <t>Size L</t>
   </si>
@@ -2928,6 +2928,496 @@
   </si>
   <si>
     <t>Brotherhood</t>
+  </si>
+  <si>
+    <t>Brown Paper</t>
+  </si>
+  <si>
+    <t>To Winnie</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Richard George</t>
+  </si>
+  <si>
+    <t>W Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnie Mary </t>
+  </si>
+  <si>
+    <t>Book instruction</t>
+  </si>
+  <si>
+    <t>14th Battery RFA</t>
+  </si>
+  <si>
+    <t>A woman's Sphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kate Field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy is missing some lines from original </t>
+  </si>
+  <si>
+    <t>C Williams Jan 1915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting </t>
+  </si>
+  <si>
+    <t>Coastal sunset ships</t>
+  </si>
+  <si>
+    <t>Watercolour</t>
+  </si>
+  <si>
+    <t>&amp; Dedication</t>
+  </si>
+  <si>
+    <t>Bdr P Tuck
+14th Battery RFA 
+OMH
+Orpington</t>
+  </si>
+  <si>
+    <t>OMH - Ontatrio Medical Hospital</t>
+  </si>
+  <si>
+    <t>GH Thompson
+ASC 
+624 MSG</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Regeimental</t>
+  </si>
+  <si>
+    <t>ASC Drawing</t>
+  </si>
+  <si>
+    <t>Stanley E. Osbourne
+"Should auld acquaintance" 
+June 1919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanley E. </t>
+  </si>
+  <si>
+    <t>Osborne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicar at Bromley Parish  Church , who left at the time of entry for Orpington </t>
+  </si>
+  <si>
+    <t>Auld Lang Syne</t>
+  </si>
+  <si>
+    <t>Quote single line</t>
+  </si>
+  <si>
+    <t>Re drawing by Janet Simpson, Bromley West Kent Mercurty 13 June 1919.</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>Janet S.C. Simpson 
+September 1925</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Janest Scott Chisholm</t>
+  </si>
+  <si>
+    <t>Artist https://www.bblhs.org.uk/janet-simpson-sketches</t>
+  </si>
+  <si>
+    <t>Friendship</t>
+  </si>
+  <si>
+    <t>Raplh Waldo Emerson</t>
+  </si>
+  <si>
+    <t>Photo_YN</t>
+  </si>
+  <si>
+    <t>Photo_Description</t>
+  </si>
+  <si>
+    <t>Women with dog</t>
+  </si>
+  <si>
+    <t>Dorothy Knight 
+18/1/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorothy </t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1911 Census </t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>D.L.F. Mills
+19.1.15</t>
+  </si>
+  <si>
+    <t>D.L.F.</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verse </t>
+  </si>
+  <si>
+    <t>Forget me Knot</t>
+  </si>
+  <si>
+    <t>Appears in multiple autograph book collections. See for example Autograph Almbums The Toronto News Company 1880</t>
+  </si>
+  <si>
+    <t>E. Leslie M. Allen 
+Bromley Parish Church 
+1923-1925</t>
+  </si>
+  <si>
+    <t>E. Leslie M.</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromley West Kent Mercury Friday 25 September 1925, p.1 -- leaving do. </t>
+  </si>
+  <si>
+    <t>Kohila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Carmichael </t>
+  </si>
+  <si>
+    <t>Rifleman. J. Wallace.
+9. co. of. Landon.
+Wed. Feb. 17th.
+1915.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.  </t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>Rifleman</t>
+  </si>
+  <si>
+    <t>9th (County of London) Bn, The London Regiment (Queen Victoria's Rifles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical </t>
+  </si>
+  <si>
+    <t>Transvaal Scottish Volunteer</t>
+  </si>
+  <si>
+    <t>A drawing of a soldier , boer war ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibly Joseph Wallace 45907 or T Wallace ? </t>
+  </si>
+  <si>
+    <t>W. M. Alexander</t>
+  </si>
+  <si>
+    <t>W.M.</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Thumbprint</t>
+  </si>
+  <si>
+    <t>K.E.</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>Girl celebrating the arrival of Spring</t>
+  </si>
+  <si>
+    <t>Ink, Pencil, Watercolour</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Yours sincerely 
+Cecil J Puttick 
+R.F.A 
+4th Dec 1917</t>
+  </si>
+  <si>
+    <t>Cecil</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Medal Card</t>
+  </si>
+  <si>
+    <t>Corporal</t>
+  </si>
+  <si>
+    <t>RFA</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Soldier standing there looking rather swank</t>
+  </si>
+  <si>
+    <t>Puttick</t>
+  </si>
+  <si>
+    <t>Wilfred Arthur</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilfred a Puttick
+"C" Battery 
+64th Brigade, R.F.A
+Ewshot Camp
+Nr. Farnham 
+Surrey </t>
+  </si>
+  <si>
+    <t>Eshot Camp</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Paper cut out -f Regeminetal Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Minnie. L. Green 
+January 17th 1915. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnie L. </t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>R.P.S.</t>
+  </si>
+  <si>
+    <t>Cigar advertising logo perhaps ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John DG Cowie
+Royal Scots Fusiliers </t>
+  </si>
+  <si>
+    <t>John DG</t>
+  </si>
+  <si>
+    <t>Cowie</t>
+  </si>
+  <si>
+    <t>Royal Fusiliers</t>
+  </si>
+  <si>
+    <t>Copy of Advert</t>
+  </si>
+  <si>
+    <t>Moss Bros Advert</t>
+  </si>
+  <si>
+    <t>Soldier thgrowing a grenade in barbed wire</t>
+  </si>
+  <si>
+    <t>J. A. Purves
+Edinburgh</t>
+  </si>
+  <si>
+    <t>J.A.</t>
+  </si>
+  <si>
+    <t>Purves</t>
+  </si>
+  <si>
+    <t>Upbeat</t>
+  </si>
+  <si>
+    <t>When Trouble Comes</t>
+  </si>
+  <si>
+    <t>see for example Talks and Tales 1890 for a copy</t>
+  </si>
+  <si>
+    <t>Eben.E. Rexford</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+W Knight 
+December 29th 1914</t>
+  </si>
+  <si>
+    <t>Little Hans</t>
+  </si>
+  <si>
+    <t>Dutch kid Fishing</t>
+  </si>
+  <si>
+    <t>Pencil and Ink</t>
+  </si>
+  <si>
+    <t>068-069</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>GEP
+Will regret that two pages of this
+valuable book have been pinched.
+1927.</t>
+  </si>
+  <si>
+    <t>DRAWING</t>
+  </si>
+  <si>
+    <t>WITH EXPLANAITON</t>
+  </si>
+  <si>
+    <t>A MINARET, QUITE GARISH COLOURS</t>
+  </si>
+  <si>
+    <t>WATER COLOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.W.E. Gallop
+Nov 3rd 
+1917. </t>
+  </si>
+  <si>
+    <t>John Wilfred Ernest</t>
+  </si>
+  <si>
+    <t>Gallop</t>
+  </si>
+  <si>
+    <t>Military Recod</t>
+  </si>
+  <si>
+    <t>8th Royal Sussex Regiment</t>
+  </si>
+  <si>
+    <t>G/7289</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Soldiers in a trench discussing a blighty wound</t>
+  </si>
+  <si>
+    <t>A.Hislop
+11/10/25</t>
+  </si>
+  <si>
+    <t>Hislop</t>
+  </si>
+  <si>
+    <t>Sketch</t>
+  </si>
+  <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>Attractive woman in pose, bery BYT</t>
+  </si>
+  <si>
+    <t>H.G. Knight 
+NOV 18 1917</t>
+  </si>
+  <si>
+    <t>Harold George</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Willi Cartoon Daily Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political </t>
+  </si>
+  <si>
+    <t>A Room smashed up and a referene to what did you do in the war</t>
+  </si>
+  <si>
+    <t>M.L.G.
+JANUARY 1915</t>
+  </si>
+  <si>
+    <t>M.L.</t>
+  </si>
+  <si>
+    <t>View off of beachy head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Gauche </t>
+  </si>
+  <si>
+    <t>WINNIE-BROMLEY-131123</t>
   </si>
 </sst>
 </file>
@@ -3065,7 +3555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3170,6 +3660,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3245,9 +3738,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3285,7 +3778,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3391,7 +3884,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3533,7 +4026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3549,12 +4042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB64374A-1957-6B41-8683-D17640EAD4AF}">
-  <dimension ref="A1:BN179"/>
+  <dimension ref="A1:BQ205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5780" topLeftCell="A161" activePane="bottomLeft"/>
-      <selection activeCell="AI1" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="AT158" sqref="AT158"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="5780" topLeftCell="A202" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="97" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3584,21 +4076,23 @@
     <col min="45" max="47" width="10.83203125" style="2"/>
     <col min="48" max="48" width="14.5" style="2" customWidth="1"/>
     <col min="49" max="50" width="11.1640625" style="2" customWidth="1"/>
-    <col min="51" max="51" width="10.83203125" style="18" customWidth="1"/>
-    <col min="52" max="52" width="7" style="5" customWidth="1"/>
-    <col min="53" max="55" width="7" style="1" customWidth="1"/>
-    <col min="56" max="56" width="6.83203125" style="5" customWidth="1"/>
-    <col min="57" max="58" width="6.83203125" style="1" customWidth="1"/>
-    <col min="59" max="59" width="5.6640625" style="7" customWidth="1"/>
-    <col min="60" max="62" width="10.83203125" style="2"/>
-    <col min="63" max="63" width="10.83203125" style="4"/>
-    <col min="64" max="64" width="10.83203125" style="17"/>
-    <col min="65" max="65" width="10.83203125" style="18"/>
-    <col min="66" max="66" width="10.83203125" style="17"/>
-    <col min="67" max="16384" width="10.83203125" style="2"/>
+    <col min="51" max="51" width="11.1640625" style="4" customWidth="1"/>
+    <col min="52" max="53" width="11.1640625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="10.83203125" style="18" customWidth="1"/>
+    <col min="55" max="55" width="7" style="5" customWidth="1"/>
+    <col min="56" max="58" width="7" style="1" customWidth="1"/>
+    <col min="59" max="59" width="6.83203125" style="5" customWidth="1"/>
+    <col min="60" max="61" width="6.83203125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="5.6640625" style="7" customWidth="1"/>
+    <col min="63" max="65" width="10.83203125" style="2"/>
+    <col min="66" max="66" width="10.83203125" style="4"/>
+    <col min="67" max="67" width="10.83203125" style="17"/>
+    <col min="68" max="68" width="10.83203125" style="18"/>
+    <col min="69" max="69" width="10.83203125" style="17"/>
+    <col min="70" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="25" customFormat="1" ht="262" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="25" customFormat="1" ht="262" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
@@ -3749,56 +4243,65 @@
       <c r="AX1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="34" t="s">
+      <c r="AY1" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="AZ1" s="26" t="s">
+        <v>939</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="BB1" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="AZ1" s="31" t="s">
+      <c r="BC1" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="BA1" s="26" t="s">
+      <c r="BD1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="BB1" s="26" t="s">
+      <c r="BE1" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="BC1" s="26" t="s">
+      <c r="BF1" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="BD1" s="31" t="s">
+      <c r="BG1" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="BE1" s="26" t="s">
+      <c r="BH1" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="BF1" s="26" t="s">
+      <c r="BI1" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BJ1" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="BH1" s="26" t="s">
+      <c r="BK1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="BI1" s="26" t="s">
+      <c r="BL1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="BJ1" s="26" t="s">
+      <c r="BM1" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="BK1" s="31" t="s">
+      <c r="BN1" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="BL1" s="33" t="s">
+      <c r="BO1" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="BM1" s="34" t="s">
+      <c r="BP1" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="BN1" s="33" t="s">
+      <c r="BQ1" s="33" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3851,7 +4354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3926,9 +4429,12 @@
       </c>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6"/>
-      <c r="AY3" s="19"/>
-    </row>
-    <row r="4" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="19"/>
+    </row>
+    <row r="4" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4006,9 +4512,12 @@
       </c>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
-      <c r="AY4" s="19"/>
-    </row>
-    <row r="5" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="19"/>
+    </row>
+    <row r="5" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4079,7 +4588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4150,7 +4659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +4730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4292,7 +4801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4372,7 +4881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -4413,7 +4922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -4531,7 +5040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4587,7 +5096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +5149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -4702,7 +5211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -4758,7 +5267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -4806,7 +5315,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -4871,7 +5380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -4939,7 +5448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -4980,7 +5489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -5039,7 +5548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -5098,7 +5607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -5148,7 +5657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -5210,7 +5719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -5263,7 +5772,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -5319,7 +5828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -5378,7 +5887,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -5428,7 +5937,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -5481,7 +5990,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -5531,7 +6040,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -5577,11 +6086,11 @@
       <c r="AS31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BA31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>127</v>
       </c>
@@ -5674,17 +6183,17 @@
       <c r="AV32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BH32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI32" s="2" t="s">
+      <c r="BK32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BJ32" s="2" t="s">
+      <c r="BM32" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>127</v>
       </c>
@@ -5781,7 +6290,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>127</v>
       </c>
@@ -5827,14 +6336,14 @@
       <c r="AX34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BH34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI34" s="2" t="s">
+      <c r="BK34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL34" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>127</v>
       </c>
@@ -5906,11 +6415,11 @@
       <c r="AS35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AZ35" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC35" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>127</v>
       </c>
@@ -5947,11 +6456,11 @@
       <c r="AX36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BH36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BK36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>127</v>
       </c>
@@ -6043,7 +6552,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -6120,7 +6629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>127</v>
       </c>
@@ -6203,7 +6712,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>127</v>
       </c>
@@ -6240,17 +6749,17 @@
       <c r="AW40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="BH40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI40" s="2" t="s">
+      <c r="BK40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL40" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BJ40" s="2" t="s">
+      <c r="BM40" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>127</v>
       </c>
@@ -6333,7 +6842,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -6404,7 +6913,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -6478,7 +6987,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -6513,17 +7022,17 @@
       <c r="AW44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BH44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI44" s="2" t="s">
+      <c r="BK44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BJ44" s="2" t="s">
+      <c r="BM44" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -6596,11 +7105,11 @@
       <c r="AW45" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="BD45" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG45" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>127</v>
       </c>
@@ -6633,7 +7142,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>127</v>
       </c>
@@ -6721,11 +7230,11 @@
       <c r="AV47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="BN47" s="22" t="s">
+      <c r="BQ47" s="22" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="48" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
@@ -6789,14 +7298,14 @@
       <c r="AV48" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="BH48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI48" s="2" t="s">
+      <c r="BK48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL48" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>127</v>
       </c>
@@ -6882,7 +7391,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="50" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>127</v>
       </c>
@@ -6915,17 +7424,17 @@
       <c r="AW50" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="BH50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI50" s="2" t="s">
+      <c r="BK50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL50" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BJ50" s="2" t="s">
+      <c r="BM50" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>127</v>
       </c>
@@ -7011,7 +7520,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>127</v>
       </c>
@@ -7043,17 +7552,17 @@
       <c r="AW52" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="BH52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI52" s="2" t="s">
+      <c r="BK52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL52" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="BJ52" s="2" t="s">
+      <c r="BM52" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>127</v>
       </c>
@@ -7123,11 +7632,11 @@
       <c r="AX53" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BD53" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG53" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -7169,7 +7678,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>127</v>
       </c>
@@ -7233,11 +7742,11 @@
       <c r="AV55" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BD55" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG55" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
@@ -7296,7 +7805,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>127</v>
       </c>
@@ -7367,7 +7876,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>127</v>
       </c>
@@ -7429,7 +7938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
@@ -7500,7 +8009,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
@@ -7553,7 +8062,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>127</v>
       </c>
@@ -7626,11 +8135,11 @@
       <c r="AQ61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BC61" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>127</v>
       </c>
@@ -7704,7 +8213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>127</v>
       </c>
@@ -7778,7 +8287,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
@@ -7872,7 +8381,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -7940,7 +8449,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>127</v>
       </c>
@@ -8013,7 +8522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
@@ -8075,7 +8584,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>127</v>
       </c>
@@ -8140,7 +8649,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
@@ -8211,7 +8720,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>127</v>
       </c>
@@ -8285,7 +8794,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>127</v>
       </c>
@@ -8338,7 +8847,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="72" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
@@ -8391,7 +8900,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>127</v>
       </c>
@@ -8423,7 +8932,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="74" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>127</v>
       </c>
@@ -8461,7 +8970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>127</v>
       </c>
@@ -8523,7 +9032,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>127</v>
       </c>
@@ -8591,7 +9100,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>127</v>
       </c>
@@ -8665,7 +9174,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>127</v>
       </c>
@@ -8745,7 +9254,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>127</v>
       </c>
@@ -8774,14 +9283,14 @@
       <c r="AQ79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BH79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI79" s="2" t="s">
+      <c r="BK79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL79" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:64" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>127</v>
       </c>
@@ -8852,7 +9361,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="81" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>127</v>
       </c>
@@ -8926,7 +9435,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>127</v>
       </c>
@@ -9002,11 +9511,11 @@
       <c r="AX82" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="BD82" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG82" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>127</v>
       </c>
@@ -9049,17 +9558,17 @@
       <c r="AQ83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BH83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI83" s="2" t="s">
+      <c r="BK83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL83" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="BJ83" s="2" t="s">
+      <c r="BM83" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="84" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>127</v>
       </c>
@@ -9142,7 +9651,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>127</v>
       </c>
@@ -9213,7 +9722,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="86" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>127</v>
       </c>
@@ -9241,14 +9750,14 @@
       <c r="AQ86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BH86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI86" s="2" t="s">
+      <c r="BK86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL86" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>127</v>
       </c>
@@ -9339,7 +9848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>127</v>
       </c>
@@ -9383,7 +9892,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="89" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>127</v>
       </c>
@@ -9427,7 +9936,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="90" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>127</v>
       </c>
@@ -9488,7 +9997,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>127</v>
       </c>
@@ -9583,7 +10092,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="92" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>127</v>
       </c>
@@ -9639,7 +10148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>127</v>
       </c>
@@ -9722,7 +10231,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>127</v>
       </c>
@@ -9804,11 +10313,11 @@
       <c r="AX94" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="BD94" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG94" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>127</v>
       </c>
@@ -9848,17 +10357,17 @@
       <c r="AQ95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BH95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI95" s="2" t="s">
+      <c r="BK95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL95" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="BJ95" s="2" t="s">
+      <c r="BM95" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="1:62" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>127</v>
       </c>
@@ -9925,11 +10434,11 @@
       <c r="AV96" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="BD96" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG96" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>127</v>
       </c>
@@ -9970,7 +10479,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="98" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>127</v>
       </c>
@@ -10011,7 +10520,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="99" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>127</v>
       </c>
@@ -10082,7 +10591,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="100" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>127</v>
       </c>
@@ -10137,11 +10646,11 @@
       <c r="AV100" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="BD100" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG100" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>127</v>
       </c>
@@ -10203,7 +10712,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="102" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>127</v>
       </c>
@@ -10277,7 +10786,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="103" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>127</v>
       </c>
@@ -10318,7 +10827,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="104" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>127</v>
       </c>
@@ -10374,7 +10883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>127</v>
       </c>
@@ -10438,11 +10947,11 @@
       <c r="AQ105" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BD105" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG105" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>127</v>
       </c>
@@ -10500,14 +11009,14 @@
       <c r="AV106" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="BL106" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM106" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BO106" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP106" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>127</v>
       </c>
@@ -10545,7 +11054,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="108" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>127</v>
       </c>
@@ -10576,17 +11085,17 @@
       <c r="AR108" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="BH108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI108" s="2" t="s">
+      <c r="BK108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL108" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BJ108" s="2" t="s">
+      <c r="BM108" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>127</v>
       </c>
@@ -10636,7 +11145,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="110" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>127</v>
       </c>
@@ -10698,7 +11207,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="111" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>127</v>
       </c>
@@ -10742,7 +11251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>127</v>
       </c>
@@ -10797,11 +11306,11 @@
       <c r="AV112" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="AY112" s="20" t="s">
+      <c r="BB112" s="20" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="113" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>127</v>
       </c>
@@ -10875,7 +11384,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="114" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>127</v>
       </c>
@@ -10925,7 +11434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>127</v>
       </c>
@@ -10981,7 +11490,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="116" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>127</v>
       </c>
@@ -11063,14 +11572,14 @@
       <c r="AV116" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="BE116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM116" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BH116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP116" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>127</v>
       </c>
@@ -11137,11 +11646,11 @@
       <c r="AV117" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="BF117" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI117" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>127</v>
       </c>
@@ -11218,7 +11727,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="119" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>127</v>
       </c>
@@ -11286,7 +11795,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="120" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>127</v>
       </c>
@@ -11371,11 +11880,11 @@
       <c r="AX120" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="BD120" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG120" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -11400,17 +11909,17 @@
       <c r="AQ121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BH121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI121" s="2" t="s">
+      <c r="BK121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL121" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="BJ121" s="2" t="s">
+      <c r="BM121" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>127</v>
       </c>
@@ -11459,11 +11968,11 @@
       <c r="AQ122" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BA122" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD122" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>756</v>
       </c>
@@ -11519,7 +12028,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="124" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>756</v>
       </c>
@@ -11584,7 +12093,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="125" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>756</v>
       </c>
@@ -11661,7 +12170,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="126" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>756</v>
       </c>
@@ -11738,7 +12247,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="127" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>756</v>
       </c>
@@ -11806,7 +12315,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="128" spans="1:65" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:68" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>756</v>
       </c>
@@ -11871,7 +12380,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="129" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>756</v>
       </c>
@@ -11941,9 +12450,9 @@
       <c r="AV129" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AY129" s="2"/>
-    </row>
-    <row r="130" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB129" s="2"/>
+    </row>
+    <row r="130" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>756</v>
       </c>
@@ -11989,14 +12498,14 @@
       <c r="AQ130" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BC130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN130" s="17" t="s">
+      <c r="BF130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ130" s="17" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="131" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>756</v>
       </c>
@@ -12049,7 +12558,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="132" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>756</v>
       </c>
@@ -12105,7 +12614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>756</v>
       </c>
@@ -12191,7 +12700,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="134" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>756</v>
       </c>
@@ -12250,7 +12759,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="135" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>756</v>
       </c>
@@ -12309,7 +12818,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="136" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>756</v>
       </c>
@@ -12362,7 +12871,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="137" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>756</v>
       </c>
@@ -12409,7 +12918,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="138" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>756</v>
       </c>
@@ -12455,11 +12964,11 @@
       <c r="AQ138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BC138" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF138" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>756</v>
       </c>
@@ -12508,11 +13017,11 @@
       <c r="AQ139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BB139" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE139" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>756</v>
       </c>
@@ -12589,7 +13098,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="141" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>756</v>
       </c>
@@ -12648,7 +13157,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="142" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>756</v>
       </c>
@@ -12695,7 +13204,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="143" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>756</v>
       </c>
@@ -12751,7 +13260,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="144" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>756</v>
       </c>
@@ -12813,7 +13322,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>756</v>
       </c>
@@ -12872,7 +13381,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="146" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>756</v>
       </c>
@@ -12949,7 +13458,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="147" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>756</v>
       </c>
@@ -13014,7 +13523,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="148" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>756</v>
       </c>
@@ -13079,7 +13588,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="149" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>756</v>
       </c>
@@ -13126,7 +13635,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="150" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>756</v>
       </c>
@@ -13185,7 +13694,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="151" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>756</v>
       </c>
@@ -13247,7 +13756,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="152" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>756</v>
       </c>
@@ -13312,7 +13821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>756</v>
       </c>
@@ -13376,11 +13885,11 @@
       <c r="AQ153" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AZ153" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC153" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>756</v>
       </c>
@@ -13436,7 +13945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>756</v>
       </c>
@@ -13489,7 +13998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>757</v>
       </c>
@@ -13542,7 +14051,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="157" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>757</v>
       </c>
@@ -13616,7 +14125,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="158" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>757</v>
       </c>
@@ -13663,7 +14172,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="159" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>757</v>
       </c>
@@ -13722,7 +14231,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="160" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:55" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>757</v>
       </c>
@@ -13772,7 +14281,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="161" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>757</v>
       </c>
@@ -13840,7 +14349,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="162" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>757</v>
       </c>
@@ -13908,7 +14417,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="163" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>757</v>
       </c>
@@ -13973,7 +14482,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="164" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>757</v>
       </c>
@@ -14013,11 +14522,11 @@
       <c r="AQ164" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AZ164" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC164" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>757</v>
       </c>
@@ -14085,7 +14594,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="166" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>757</v>
       </c>
@@ -14153,7 +14662,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>757</v>
       </c>
@@ -14205,11 +14714,11 @@
       <c r="AR167" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="BK167" s="4">
+      <c r="BN167" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>757</v>
       </c>
@@ -14271,7 +14780,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="169" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>757</v>
       </c>
@@ -14327,7 +14836,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="170" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>757</v>
       </c>
@@ -14383,7 +14892,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="171" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>757</v>
       </c>
@@ -14433,7 +14942,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="172" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>757</v>
       </c>
@@ -14483,7 +14992,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="173" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>757</v>
       </c>
@@ -14548,7 +15057,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="174" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>757</v>
       </c>
@@ -14613,7 +15122,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="175" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>757</v>
       </c>
@@ -14687,7 +15196,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="176" spans="1:63" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:66" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>757</v>
       </c>
@@ -14752,7 +15261,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="177" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>757</v>
       </c>
@@ -14804,14 +15313,14 @@
       <c r="AW177" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="BH177" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI177" s="2" t="s">
+      <c r="BK177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL177" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="178" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>757</v>
       </c>
@@ -14885,7 +15394,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="179" spans="1:61" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>757</v>
       </c>
@@ -14907,9 +15416,6 @@
       <c r="G179" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H179" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="I179" s="9" t="s">
         <v>93</v>
       </c>
@@ -14940,14 +15446,1698 @@
       <c r="AQ179" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BA179" s="1" t="s">
-        <v>14</v>
+      <c r="BD179" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C180" s="2">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2">
+        <v>11</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="11">
+        <v>1</v>
+      </c>
+      <c r="K180" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="T180" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="U180" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="V180" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="X180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y180" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="Z180" s="2">
+        <v>1898</v>
+      </c>
+      <c r="AG180" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ180" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="181" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C181" s="2">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2">
+        <v>11</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" s="11">
+        <v>2</v>
+      </c>
+      <c r="K181" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="T181" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="U181" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="V181" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="X181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y181" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="Z181" s="2">
+        <v>1870</v>
+      </c>
+      <c r="AG181" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ181" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C182" s="2">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2">
+        <v>11</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J182" s="11">
+        <v>3</v>
+      </c>
+      <c r="K182" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L182" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="M182" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="T182" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="U182" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="V182" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="X182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y182" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="Z182" s="2">
+        <v>1900</v>
+      </c>
+      <c r="AQ182" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR182" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="183" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C183" s="2">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2">
+        <v>11</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J183" s="11">
+        <v>5</v>
+      </c>
+      <c r="T183" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="X183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC183" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE183" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="AG183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ183" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT183" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="AU183" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="AV183" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="BQ183" s="17" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="184" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C184" s="2">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2">
+        <v>11</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J184" s="11">
+        <v>7</v>
+      </c>
+      <c r="K184" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L184" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="T184" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="U184" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="V184" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="X184" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ184" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="AR184" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="AW184" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="AX184" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="185" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C185" s="2">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2">
+        <v>11</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J185" s="11">
+        <v>9</v>
+      </c>
+      <c r="T185" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="U185" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="V185" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="X185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC185" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG185" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ185" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="AR185" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="BA185" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="BP185" s="18" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="186" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" s="2">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2">
+        <v>11</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I186" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J186" s="11">
+        <v>11</v>
+      </c>
+      <c r="K186" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="L186" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="T186" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="U186" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="V186" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="X186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB186" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG186" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ186" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR186" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="AT186" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="BP186" s="18" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="187" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C187" s="2">
+        <v>17</v>
+      </c>
+      <c r="D187" s="2">
+        <v>11</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J187" s="11">
+        <v>13</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="L187" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="T187" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="U187" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="V187" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="X187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y187" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="Z187" s="2">
+        <v>1874</v>
+      </c>
+      <c r="AG187" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP187" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR187" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AT187" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="AU187" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="AY187" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ187" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="188" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C188" s="2">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2">
+        <v>11</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J188" s="11">
+        <v>15</v>
+      </c>
+      <c r="K188" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L188" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="M188" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="T188" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="U188" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="V188" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="W188" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="X188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y188" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR188" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="189" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C189" s="2">
+        <v>17</v>
+      </c>
+      <c r="D189" s="2">
+        <v>11</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J189" s="11">
+        <v>17</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L189" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="M189" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="T189" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="U189" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="V189" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="X189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP189" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR189" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="AT189" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="AV189" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="190" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C190" s="2">
+        <v>17</v>
+      </c>
+      <c r="D190" s="2">
+        <v>11</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J190" s="11">
+        <v>19</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="L190" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="M190" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="T190" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="U190" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="V190" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="X190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y190" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="AO190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP190" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ190" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR190" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AT190" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="AU190" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="191" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C191" s="2">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2">
+        <v>11</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J191" s="11">
+        <v>21</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="M191" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T191" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="U191" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="V191" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="X191" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y191" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC191" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD191" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="AE191" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="AM191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ191" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR191" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="AT191" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="AW191" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="AX191" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="192" spans="1:69" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C192" s="2">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2">
+        <v>11</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J192" s="11">
+        <v>25</v>
+      </c>
+      <c r="K192" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L192" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="T192" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="U192" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="V192" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="X192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ192" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="AR192" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="193" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C193" s="2">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2">
+        <v>11</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J193" s="11">
+        <v>28</v>
+      </c>
+      <c r="T193" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="U193" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="V193" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="X193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG193" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ193" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR193" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="AS193" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AW193" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="AX193" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="194" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C194" s="2">
+        <v>17</v>
+      </c>
+      <c r="D194" s="2">
+        <v>11</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J194" s="11">
+        <v>32</v>
+      </c>
+      <c r="K194" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L194" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M194" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="T194" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="U194" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="V194" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="W194" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="X194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y194" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="AC194" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD194" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="AE194" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF194" s="2">
+        <v>291176</v>
+      </c>
+      <c r="AQ194" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AR194" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="AY194" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ194" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="195" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C195" s="2">
+        <v>17</v>
+      </c>
+      <c r="D195" s="2">
+        <v>11</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J195" s="11">
+        <v>33</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="M195" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="R195" s="2">
+        <v>51.250434760143499</v>
+      </c>
+      <c r="S195" s="2">
+        <v>-0.82945064393098</v>
+      </c>
+      <c r="T195" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="U195" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="V195" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="W195" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="X195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y195" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="Z195" s="2">
+        <v>1896</v>
+      </c>
+      <c r="AA195" s="2">
+        <v>1968</v>
+      </c>
+      <c r="AC195" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD195" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="AE195" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF195" s="2">
+        <v>2802</v>
+      </c>
+      <c r="AQ195" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="BA195" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="196" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C196" s="2">
+        <v>17</v>
+      </c>
+      <c r="D196" s="2">
+        <v>11</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J196" s="11">
+        <v>39</v>
+      </c>
+      <c r="K196" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L196" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="M196" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T196" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="U196" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="V196" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="X196" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO196" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AQ196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR196" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="197" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C197" s="2">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2">
+        <v>11</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J197" s="11">
+        <v>41</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="M197" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="T197" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="X197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO197" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ197" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV197" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C198" s="2">
+        <v>17</v>
+      </c>
+      <c r="D198" s="2">
+        <v>11</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J198" s="11">
+        <v>51</v>
+      </c>
+      <c r="T198" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="U198" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="V198" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="X198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC198" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE198" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AO198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP198" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ198" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR198" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AV198" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AX198" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C199" s="2">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2">
+        <v>11</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J199" s="11">
+        <v>55</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M199" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="T199" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U199" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="V199" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="X199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP199" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR199" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AT199" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AU199" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AV199" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="200" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C200" s="2">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2">
+        <v>11</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J200" s="11">
+        <v>63</v>
+      </c>
+      <c r="K200" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="L200" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M200" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="T200" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="U200" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="V200" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="W200" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="X200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y200" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ200" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR200" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="AS200" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AW200" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AX200" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="201" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C201" s="2">
+        <v>17</v>
+      </c>
+      <c r="D201" s="2">
+        <v>11</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J201" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="T201" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ201" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AR201" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AW201" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AX201" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="202" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C202" s="2">
+        <v>17</v>
+      </c>
+      <c r="D202" s="2">
+        <v>11</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J202" s="11">
+        <v>71</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L202" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="M202" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="T202" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U202" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y202" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Z202" s="2">
+        <v>1889</v>
+      </c>
+      <c r="AA202" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC202" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD202" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="AE202" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AF202" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AQ202" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="AR202" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AW202" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AX202" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="203" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C203" s="2">
+        <v>17</v>
+      </c>
+      <c r="D203" s="2">
+        <v>11</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J203" s="11">
+        <v>73</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="M203" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="T203" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="U203" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="V203" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X203" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ203" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AR203" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AW203" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AX203" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="204" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C204" s="2">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2">
+        <v>11</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I204" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J204" s="11">
+        <v>97</v>
+      </c>
+      <c r="K204" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L204" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="M204" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="T204" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="U204" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V204" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="W204" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="X204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y204" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="Z204" s="2">
+        <v>1902</v>
+      </c>
+      <c r="AC204" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO204" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP204" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AQ204" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="AR204" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AW204" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AX204" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="205" spans="1:53" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C205" s="2">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2">
+        <v>11</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J205" s="11">
+        <v>109</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="L205" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="T205" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="U205" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V205" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="X205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ205" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR205" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="AW205" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AX205" s="2" t="s">
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BN179" xr:uid="{AB64374A-1957-6B41-8683-D17640EAD4AF}"/>
+  <autoFilter ref="A1:BQ205" xr:uid="{AB64374A-1957-6B41-8683-D17640EAD4AF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="AQ158">
+  <conditionalFormatting sqref="AQ158 A158:H178 A179:G179 H180:H184">
     <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -14977,13 +17167,13 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ1:AU31 AV1:XFD34 AL1:AP77 A1:AK87 AQ32:AV33 AQ34:AU34 AQ35:AV35 BL35:XFD35 AQ36:BG50 BH36:XFD149 AQ51:AS52 AU51:BG52 AQ53:BG74 AS75:BG75 AQ76:BG77 AL78:BG88 G88:AK88 A88:F95 G89:BG91 G92:J92 N92:BG92 G93:BG95 A96:BG101 I102:BG104 A102:H122 I105:M105 O105:P105 R105:BG105 I106:BG112 K113:AR113 AT113 AV113:BG113 I113:I122 J113:J149 K114:BG128 A123:I124 B125:I142 A125:A155 K129:AW129 AY129:BG129 K130:BG149 H143:I149 B143:G155 H150:XFD150 H151:AK151 AM151:XFD151 H152:XFD155 A156:T156 W156:XFD156 A157:XFD157 A158:H179">
+  <conditionalFormatting sqref="AQ1:AU31 AV1:XFD34 AL1:AP77 A1:AK87 AQ32:AV33 AQ34:AU34 AQ35:AV35 BO35:XFD35 AQ36:BJ50 BK36:XFD149 AQ51:AS52 AU51:BJ52 AQ53:BJ74 AS75:BJ75 AQ76:BJ77 AL78:BJ88 G88:AK88 A88:F95 G89:BJ91 G92:J92 N92:BJ92 G93:BJ95 A96:BJ101 I102:BJ104 A102:H122 I105:M105 O105:P105 R105:BJ105 I106:BJ112 K113:AR113 AT113 AV113:BJ113 I113:I122 J113:J149 K114:BJ128 A123:I124 B125:I142 A125:A155 K129:AW129 BB129:BJ129 K130:BJ149 H143:I149 B143:G155 H150:XFD150 H151:AK151 AM151:XFD151 H152:XFD155 A156:T156 W156:XFD156 A157:XFD157">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="BN47" r:id="rId1" xr:uid="{353911C6-6CB2-834A-81C6-526664827B79}"/>
+    <hyperlink ref="BQ47" r:id="rId1" xr:uid="{353911C6-6CB2-834A-81C6-526664827B79}"/>
     <hyperlink ref="AV126" r:id="rId2" xr:uid="{AAC292EF-86EF-7847-BA16-4C83B48AB82E}"/>
     <hyperlink ref="AB140" r:id="rId3" xr:uid="{26A619BF-6019-7746-B232-1C5068089D75}"/>
   </hyperlinks>
